--- a/medicine/Mort/Le_Goûter_de_Josette/Le_Goûter_de_Josette.xlsx
+++ b/medicine/Mort/Le_Goûter_de_Josette/Le_Goûter_de_Josette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBter_de_Josette</t>
+          <t>Le_Goûter_de_Josette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Goûter de Josette est un court métrage français réalisé par Gérard Frot-Coutaz et sorti en 1983.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBter_de_Josette</t>
+          <t>Le_Goûter_de_Josette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un couple âgé se rend sur le caveau qu'il a fait bâtir. Pendant ce temps, chez la voisine Josette, les commentaires se déchaînent.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBter_de_Josette</t>
+          <t>Le_Goûter_de_Josette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Le Goûter de Josette
 Réalisation : Gérard Frot-Coutaz
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBter_de_Josette</t>
+          <t>Le_Goûter_de_Josette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Germaine Bastide
 Paulette Bouvet
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBter_de_Josette</t>
+          <t>Le_Goûter_de_Josette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,9 +641,11 @@
           <t>Sélection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été présenté au cinquième Festival international du court métrage de Clermont-Ferrand[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été présenté au cinquième Festival international du court métrage de Clermont-Ferrand
 </t>
         </is>
       </c>
